--- a/input_data/stratified_EA_rates.xlsx
+++ b/input_data/stratified_EA_rates.xlsx
@@ -1,32 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tvaughan\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\indata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C8CAD2-8343-484B-B303-2B4CEC17494A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90855" yWindow="0" windowWidth="21915" windowHeight="11865"/>
+    <workbookView xWindow="93075" yWindow="0" windowWidth="21915" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SEER18 EA_incidence (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="SEER18 EA_incidence (new data)" sheetId="3" r:id="rId1"/>
     <sheet name="SEER9 EA_incidence" sheetId="1" r:id="rId2"/>
     <sheet name="Calculation of wted BE-EA rates" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
   <si>
     <t>age</t>
   </si>
@@ -83,17 +89,78 @@
   </si>
   <si>
     <t>HGD</t>
+  </si>
+  <si>
+    <t>Corley</t>
+  </si>
+  <si>
+    <t>Corley's</t>
+  </si>
+  <si>
+    <t>higher</t>
+  </si>
+  <si>
+    <t>23.9*16.77</t>
+  </si>
+  <si>
+    <t>NDBE/lg</t>
+  </si>
+  <si>
+    <t>males</t>
+  </si>
+  <si>
+    <t>fem</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Male RR Corley factor</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>KROEP</t>
+  </si>
+  <si>
+    <t>IR_Male</t>
+  </si>
+  <si>
+    <t>.19=.67M + .33*.39M</t>
+  </si>
+  <si>
+    <t>M=.19/.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M= </t>
+  </si>
+  <si>
+    <t>20.43 per 1000</t>
+  </si>
+  <si>
+    <t>CORLEY</t>
+  </si>
+  <si>
+    <t>61yo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,8 +183,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,6 +201,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -140,10 +226,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -154,9 +241,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="170" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -433,11 +530,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +603,7 @@
       </c>
       <c r="C2" s="1">
         <f>$C$6*(1.04^($A2-62))</f>
-        <v>191.68251740454266</v>
+        <v>143.30550110720571</v>
       </c>
       <c r="D2" s="1">
         <v>1.52</v>
@@ -514,12 +611,12 @@
       <c r="E2" s="1">
         <v>242.19999999999996</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="8">
         <v>0.15</v>
       </c>
       <c r="G2" s="8">
-        <f>$C$6*0.5*(1.04^($A2-62))</f>
-        <v>95.841258702271332</v>
+        <f>$C$6*0.4*(1.04^($A2-62))</f>
+        <v>57.322200442882284</v>
       </c>
       <c r="H2" s="8">
         <v>0.12</v>
@@ -531,8 +628,8 @@
         <v>0.25</v>
       </c>
       <c r="K2" s="1">
-        <f>$C$6*0.65*(1.04^($A2-62))</f>
-        <v>124.59363631295273</v>
+        <f>$C$6*0.75*(1.04^($A2-62))</f>
+        <v>107.47912583040429</v>
       </c>
       <c r="L2" s="1">
         <v>0.26666666666666666</v>
@@ -550,7 +647,7 @@
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C5" si="0">$C$6*(1.04^($A3-62))</f>
-        <v>233.21109113957539</v>
+        <v>174.35305385196827</v>
       </c>
       <c r="D3" s="1">
         <v>2.6252380952380947</v>
@@ -558,12 +655,12 @@
       <c r="E3" s="1">
         <v>372.4</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="8">
         <v>0.43333333333333335</v>
       </c>
       <c r="G3" s="8">
-        <f t="shared" ref="G3:G11" si="1">$C$6*0.5*(1.04^($A3-62))</f>
-        <v>116.60554556978769</v>
+        <f t="shared" ref="G3:G11" si="1">$C$6*0.4*(1.04^($A3-62))</f>
+        <v>69.741221540787322</v>
       </c>
       <c r="H3" s="8">
         <v>0.42857142857142855</v>
@@ -575,8 +672,8 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K11" si="2">$C$6*0.65*(1.04^($A3-62))</f>
-        <v>151.58720924072401</v>
+        <f t="shared" ref="K3:K11" si="2">$C$6*0.75*(1.04^($A3-62))</f>
+        <v>130.76479038897619</v>
       </c>
       <c r="L3" s="1">
         <v>0.24975609756097567</v>
@@ -594,7 +691,7 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>283.73695090683538</v>
+        <v>212.12714901130073</v>
       </c>
       <c r="D4" s="1">
         <v>5.0999999999999996</v>
@@ -602,12 +699,12 @@
       <c r="E4" s="1">
         <v>595.9</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="8">
         <v>0.68333333333333346</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" si="1"/>
-        <v>141.86847545341769</v>
+        <v>84.850859604520295</v>
       </c>
       <c r="H4" s="8">
         <v>0.61499999999999988</v>
@@ -620,7 +717,7 @@
       </c>
       <c r="K4" s="1">
         <f t="shared" si="2"/>
-        <v>184.42901808944299</v>
+        <v>159.09536175847555</v>
       </c>
       <c r="L4" s="1">
         <v>0.79733333333333334</v>
@@ -638,7 +735,7 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>345.20938483892763</v>
+        <v>258.08511152243636</v>
       </c>
       <c r="D5" s="1">
         <v>10.083916083916083</v>
@@ -646,12 +743,12 @@
       <c r="E5" s="1">
         <v>891.9</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="8">
         <v>1.2833333333333332</v>
       </c>
       <c r="G5" s="8">
         <f t="shared" si="1"/>
-        <v>172.60469241946382</v>
+        <v>103.23404460897456</v>
       </c>
       <c r="H5" s="8">
         <v>0.97777777777777786</v>
@@ -664,7 +761,7 @@
       </c>
       <c r="K5" s="1">
         <f t="shared" si="2"/>
-        <v>224.38610014530298</v>
+        <v>193.5638336418273</v>
       </c>
       <c r="L5" s="1">
         <v>1.589240506329114</v>
@@ -680,8 +777,8 @@
       <c r="B6" s="1">
         <v>16.766666666666666</v>
       </c>
-      <c r="C6" s="9">
-        <v>420</v>
+      <c r="C6" s="1">
+        <v>314</v>
       </c>
       <c r="D6" s="1">
         <v>16.725546218487395</v>
@@ -689,12 +786,12 @@
       <c r="E6" s="1">
         <v>1262.5999999999999</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="8">
         <v>1.8333333333333337</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>125.60000000000001</v>
       </c>
       <c r="H6" s="8">
         <v>1.8263414634146344</v>
@@ -707,7 +804,7 @@
       </c>
       <c r="K6" s="1">
         <f t="shared" si="2"/>
-        <v>273</v>
+        <v>235.5</v>
       </c>
       <c r="L6" s="1">
         <v>5.4051908396946562</v>
@@ -725,7 +822,7 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" ref="C7:C11" si="3">$C$6*(1.04^($A7-62))</f>
-        <v>510.99421900800013</v>
+        <v>382.02901135360008</v>
       </c>
       <c r="D7" s="1">
         <v>21.984831804281338</v>
@@ -733,12 +830,12 @@
       <c r="E7" s="1">
         <v>1750.7000000000003</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="8">
         <v>2.5500000000000003</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="1"/>
-        <v>255.49710950400006</v>
+        <v>152.81160454144006</v>
       </c>
       <c r="H7" s="8">
         <v>2.177777777777778</v>
@@ -751,7 +848,7 @@
       </c>
       <c r="K7" s="1">
         <f t="shared" si="2"/>
-        <v>332.14624235520012</v>
+        <v>286.52175851520008</v>
       </c>
       <c r="L7" s="1">
         <v>3.828487084870849</v>
@@ -769,7 +866,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="3"/>
-        <v>621.70259966570472</v>
+        <v>464.79670546436017</v>
       </c>
       <c r="D8" s="1">
         <v>25.830153846153856</v>
@@ -777,12 +874,12 @@
       <c r="E8" s="1">
         <v>2695.7</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="8">
         <v>3.2666666666666671</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="1"/>
-        <v>310.85129983285236</v>
+        <v>185.9186821857441</v>
       </c>
       <c r="H8" s="8">
         <v>3.4237974683544308</v>
@@ -795,7 +892,7 @@
       </c>
       <c r="K8" s="1">
         <f t="shared" si="2"/>
-        <v>404.10668978270809</v>
+        <v>348.59752909827017</v>
       </c>
       <c r="L8" s="1">
         <v>6.3112574850299401</v>
@@ -813,7 +910,7 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="3"/>
-        <v>756.39627231290501</v>
+        <v>565.49626072917181</v>
       </c>
       <c r="D9" s="1">
         <v>34.957155361050326</v>
@@ -821,12 +918,12 @@
       <c r="E9" s="1">
         <v>4257.6000000000004</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="8">
         <v>4</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="1"/>
-        <v>378.19813615645251</v>
+        <v>226.19850429166877</v>
       </c>
       <c r="H9" s="8">
         <v>3.6673584905660377</v>
@@ -839,7 +936,7 @@
       </c>
       <c r="K9" s="1">
         <f t="shared" si="2"/>
-        <v>491.65757700338827</v>
+        <v>424.12219554687891</v>
       </c>
       <c r="L9" s="1">
         <v>3.6189578163771716</v>
@@ -857,7 +954,7 @@
       </c>
       <c r="C10" s="6">
         <f t="shared" si="3"/>
-        <v>920.27172007403692</v>
+        <v>688.0126669124943</v>
       </c>
       <c r="D10" s="1">
         <v>36.08229166666667</v>
@@ -865,12 +962,12 @@
       <c r="E10" s="1">
         <v>7103</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="8">
         <v>5.583333333333333</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="1"/>
-        <v>460.13586003701846</v>
+        <v>275.20506676499775</v>
       </c>
       <c r="H10" s="8">
         <v>5.6444444444444439</v>
@@ -881,9 +978,9 @@
       <c r="J10" s="1">
         <v>4.8999999999999995</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="1">
         <f t="shared" si="2"/>
-        <v>598.17661804812406</v>
+        <v>516.00950018437072</v>
       </c>
       <c r="L10" s="1">
         <v>8.7959349593495944</v>
@@ -901,7 +998,7 @@
       </c>
       <c r="C11" s="6">
         <f t="shared" si="3"/>
-        <v>1119.6512592247179</v>
+        <v>837.07260808705098</v>
       </c>
       <c r="D11" s="1">
         <v>37.935207373271894</v>
@@ -909,12 +1006,12 @@
       <c r="E11" s="1">
         <v>15000.3</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="8">
         <v>5.2333333333333334</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="1"/>
-        <v>559.82562961235897</v>
+        <v>334.8290432348204</v>
       </c>
       <c r="H11" s="8">
         <v>7.1562790697674412</v>
@@ -925,9 +1022,9 @@
       <c r="J11" s="1">
         <v>3.65</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="1">
         <f t="shared" si="2"/>
-        <v>727.77331849606662</v>
+        <v>627.80445606528815</v>
       </c>
       <c r="L11" s="1">
         <v>5.0173493975903609</v>
@@ -935,6 +1032,9 @@
       <c r="M11" s="1">
         <v>13291.7</v>
       </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
     </row>
     <row r="23" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I23" s="2"/>
@@ -991,7 +1091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -1549,44 +1649,75 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" customWidth="1"/>
+    <col min="22" max="23" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="9">
         <v>0.22500000000000001</v>
       </c>
       <c r="C4">
-        <v>0.86</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="D4">
         <f>B4*C4</f>
-        <v>0.19350000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.20385</v>
+      </c>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1595,14 +1726,28 @@
         <v>0.82800000000000007</v>
       </c>
       <c r="C5">
-        <v>0.11</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D6" si="0">B5*C5</f>
-        <v>9.1080000000000008E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.7896000000000012E-2</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="O5" s="15">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="P5" s="15">
+        <f>N5*O5</f>
+        <v>0.19932</v>
+      </c>
+      <c r="Q5" s="15"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1611,20 +1756,493 @@
         <v>4.5</v>
       </c>
       <c r="C6">
-        <v>0.03</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.13500000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="17">
+        <f>N5*3.68</f>
+        <v>0.80959999999999999</v>
+      </c>
+      <c r="O6" s="15">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="P6" s="15">
+        <f t="shared" ref="P6:P7" si="1">N6*O6</f>
+        <v>6.6387200000000007E-2</v>
+      </c>
+      <c r="Q6" s="15"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D7">
         <f>SUM(D4:D6)</f>
-        <v>0.41958000000000001</v>
+        <v>0.32574600000000004</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="17">
+        <f>N5*20</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O7" s="15">
+        <v>1.2E-2</v>
+      </c>
+      <c r="P7" s="15">
+        <f t="shared" si="1"/>
+        <v>5.2800000000000007E-2</v>
+      </c>
+      <c r="Q7" s="15"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15">
+        <f>SUM(P5:P7)</f>
+        <v>0.31850720000000005</v>
+      </c>
+      <c r="Q8" s="15"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="C11">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="D11">
+        <f>B11*C11</f>
+        <v>0.23556000000000002</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <f>B11*3.68</f>
+        <v>0.95680000000000009</v>
+      </c>
+      <c r="C12">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:D13" si="2">B12*C12</f>
+        <v>7.8457600000000016E-2</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1">
+        <f>B11*20</f>
+        <v>5.2</v>
+      </c>
+      <c r="C13">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>6.2400000000000004E-2</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>SUM(D11:D13)</f>
+        <v>0.37641760000000002</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="15"/>
+      <c r="V15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M16" s="15">
+        <v>6.7</v>
+      </c>
+      <c r="N16" s="15">
+        <f>M16*4/5</f>
+        <v>5.36</v>
+      </c>
+      <c r="O16" s="15">
+        <f>N16+10.07</f>
+        <v>15.43</v>
+      </c>
+      <c r="P16" s="15">
+        <v>21.46</v>
+      </c>
+      <c r="Q16" s="15">
+        <f>O16*P16</f>
+        <v>331.12779999999998</v>
+      </c>
+      <c r="V16" t="s">
+        <v>24</v>
+      </c>
+      <c r="W16" t="s">
+        <v>25</v>
+      </c>
+      <c r="X16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V17" s="18">
+        <f>102/32486</f>
+        <v>3.139814073754848E-3</v>
+      </c>
+      <c r="W17" s="12">
+        <f>19/15650</f>
+        <v>1.2140575079872204E-3</v>
+      </c>
+      <c r="X17" s="13">
+        <f>W17/V17</f>
+        <v>0.3866654137693416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="C19">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="D19">
+        <f>B19*C19</f>
+        <v>0.17214000000000002</v>
+      </c>
+      <c r="V19" t="s">
+        <v>28</v>
+      </c>
+      <c r="W19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
+        <f>B19*3.68</f>
+        <v>0.69920000000000004</v>
+      </c>
+      <c r="C20">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:D21" si="3">B20*C20</f>
+        <v>5.7334400000000008E-2</v>
+      </c>
+      <c r="V20">
+        <f>32486+15650</f>
+        <v>48136</v>
+      </c>
+      <c r="W20">
+        <f>121/V20</f>
+        <v>2.5137111517367461E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1">
+        <f>B19*20</f>
+        <v>3.8</v>
+      </c>
+      <c r="C21">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>4.5600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f>SUM(D19:D21)</f>
+        <v>0.27507440000000005</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22">
+        <f>23.9*16.77</f>
+        <v>400.80299999999994</v>
+      </c>
+      <c r="V22">
+        <f>32486</f>
+        <v>32486</v>
+      </c>
+      <c r="W22">
+        <f>15650</f>
+        <v>15650</v>
+      </c>
+      <c r="X22">
+        <f>1-(15650/V20)</f>
+        <v>0.67487950806049524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="10">
+        <f>(400-354)/354</f>
+        <v>0.12994350282485875</v>
+      </c>
+      <c r="H25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N27" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="C29">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="D29">
+        <f>B29*C29</f>
+        <v>0.18772</v>
+      </c>
+      <c r="O29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="1">
+        <f>B29*20</f>
+        <v>3.8</v>
+      </c>
+      <c r="C30">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30" si="4">B30*C30</f>
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="O30" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <f>SUM(D29:D30)</f>
+        <v>0.23332</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O33" t="s">
+        <v>14</v>
+      </c>
+      <c r="P33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>23</v>
+      </c>
+      <c r="O34" s="14">
+        <v>0.20430000000000001</v>
+      </c>
+      <c r="P34">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="Q34">
+        <f>O34*P34</f>
+        <v>0.20184840000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="9"/>
+      <c r="N35" t="s">
+        <v>18</v>
+      </c>
+      <c r="O35" s="1">
+        <f>O34*20</f>
+        <v>4.0860000000000003</v>
+      </c>
+      <c r="P35">
+        <v>1.2E-2</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" ref="Q35" si="5">O35*P35</f>
+        <v>4.9032000000000006E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="Q36">
+        <f>SUM(Q34:Q35)</f>
+        <v>0.2508804</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O38" t="s">
+        <v>14</v>
+      </c>
+      <c r="P38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>16</v>
+      </c>
+      <c r="O39" s="14">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="P39">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="Q39">
+        <f>O39*P39</f>
+        <v>0.15855</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>17</v>
+      </c>
+      <c r="O40" s="1">
+        <f>O39*3.68</f>
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="P40">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" ref="Q40:Q41" si="6">O40*P40</f>
+        <v>5.2808000000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>18</v>
+      </c>
+      <c r="O41" s="1">
+        <f>O39*20</f>
+        <v>3.5</v>
+      </c>
+      <c r="P41">
+        <v>1.2E-2</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="6"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q42">
+        <f>SUM(Q39:Q41)</f>
+        <v>0.25335799999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/input_data/stratified_EA_rates.xlsx
+++ b/input_data/stratified_EA_rates.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tvaughan\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4D733835-2F79-42B5-A70B-E7E60E2CABE5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DFAC26-09A0-44C7-9FDF-0E6D6430F2EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="95310" yWindow="0" windowWidth="21915" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="97545" yWindow="0" windowWidth="21915" windowHeight="11865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEER18 EA_incidence (new data)" sheetId="3" r:id="rId1"/>
+    <sheet name="NOTES" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>age</t>
   </si>
@@ -69,6 +70,24 @@
   </si>
   <si>
     <t>ACM_bm</t>
+  </si>
+  <si>
+    <t>ACM</t>
+  </si>
+  <si>
+    <t>all cause mortality</t>
+  </si>
+  <si>
+    <t>wm/bm/wf</t>
+  </si>
+  <si>
+    <t>white or black; male or female</t>
+  </si>
+  <si>
+    <t>mortality_xx_EA</t>
+  </si>
+  <si>
+    <t>mortality from esophageal adenocarcinoma</t>
   </si>
 </sst>
 </file>
@@ -414,7 +433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -969,4 +988,47 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBCB84F-220B-40BB-8E67-2F7B9159A38A}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input_data/stratified_EA_rates.xlsx
+++ b/input_data/stratified_EA_rates.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tvaughan\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DFAC26-09A0-44C7-9FDF-0E6D6430F2EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4D733835-2F79-42B5-A70B-E7E60E2CABE5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="97545" yWindow="0" windowWidth="21915" windowHeight="11865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="95310" yWindow="0" windowWidth="21915" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEER18 EA_incidence (new data)" sheetId="3" r:id="rId1"/>
-    <sheet name="NOTES" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>age</t>
   </si>
@@ -70,24 +69,6 @@
   </si>
   <si>
     <t>ACM_bm</t>
-  </si>
-  <si>
-    <t>ACM</t>
-  </si>
-  <si>
-    <t>all cause mortality</t>
-  </si>
-  <si>
-    <t>wm/bm/wf</t>
-  </si>
-  <si>
-    <t>white or black; male or female</t>
-  </si>
-  <si>
-    <t>mortality_xx_EA</t>
-  </si>
-  <si>
-    <t>mortality from esophageal adenocarcinoma</t>
   </si>
 </sst>
 </file>
@@ -433,7 +414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -988,47 +969,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBCB84F-220B-40BB-8E67-2F7B9159A38A}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>